--- a/data.xlsx
+++ b/data.xlsx
@@ -14,30 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>EPN</t>
+  </si>
+  <si>
+    <t>Famille</t>
+  </si>
   <si>
     <t>Ref</t>
   </si>
   <si>
-    <t>EPN</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>0023</t>
+    <t>sdsd</t>
+  </si>
+  <si>
+    <t>ami</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>werw</t>
+  </si>
+  <si>
+    <t>tete</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>amina</t>
-  </si>
-  <si>
-    <t>deoa</t>
-  </si>
-  <si>
-    <t>098</t>
+    <t>dsds00</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>fsasa</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -395,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,38 +438,134 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>354</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
